--- a/Wykresy BFS DFS.xlsx
+++ b/Wykresy BFS DFS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\Desktop\PP\AiSD\grafy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Grafy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="9672" activeTab="1"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9672" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz2" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,14 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="plikBFS" localSheetId="2">Arkusz1!$A$2:$C$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -89,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -147,7 +148,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5455,8 +5456,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>BFS bez tabeli krawędzi</a:t>
+              <a:t>DFS</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> bez tabeli krawędzi</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5491,19 +5497,166 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Arkusz1!$A$16</c:f>
+              <c:f>[2]dfs2_bezgenerowania!$K$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>dfs_nastepniki</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[2]dfs2_bezgenerowania!$L$15:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]dfs2_bezgenerowania!$L$17:$Z$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0008811950683501E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9949417114257804E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0068836212158203E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05330944061279E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6015291213989199E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2022008895873999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9684543609619099E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0038347244262598E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7068119049072203E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7609548568725503E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9098701477050698E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2119932174682603E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.107111454010009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17217850685119601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADAD-4D5C-A7C2-69A8C66D1C37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]dfs2_bezgenerowania!$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dfs_sasiedztwa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5526,9 +5679,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>[1]Arkusz1!$B$14:$P$14</c:f>
+              <c:f>[2]dfs2_bezgenerowania!$L$15:$Z$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5579,78 +5732,78 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>[1]Arkusz1!$B$16:$P$16</c:f>
+              <c:f>[2]dfs2_bezgenerowania!$L$18:$Z$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1E-4</c:v>
+                  <c:v>4.0037631988525304E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0020008087158199E-3</c:v>
+                  <c:v>1.7025947570800701E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0048828125E-3</c:v>
+                  <c:v>3.8537263870239202E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5175037384033203E-3</c:v>
+                  <c:v>6.8066358566284096E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.30224227905273E-2</c:v>
+                  <c:v>0.108105659484863</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9519805908203101E-2</c:v>
+                  <c:v>0.16015720367431599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5025129318237301E-2</c:v>
+                  <c:v>0.21924471855163499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3053398132324198E-2</c:v>
+                  <c:v>0.27442336082458402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1040182113647398E-2</c:v>
+                  <c:v>0.34836006164550698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1064491271972601E-2</c:v>
+                  <c:v>0.44999170303344699</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2069416046142502E-2</c:v>
+                  <c:v>0.52749490737914995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.20798969268798E-2</c:v>
+                  <c:v>0.61712408065795898</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5073232650756794E-2</c:v>
+                  <c:v>0.72476983070373502</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.8115444183349595E-2</c:v>
+                  <c:v>0.87861919403076105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11311149597167899</c:v>
+                  <c:v>0.96294760704040505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8712-46BA-BAB8-71E3A86F4A7F}"/>
+              <c16:uniqueId val="{00000001-ADAD-4D5C-A7C2-69A8C66D1C37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Arkusz1!$A$17</c:f>
+              <c:f>[2]dfs2_bezgenerowania!$K$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dfs_sasiedztwa</c:v>
+                  <c:v>dfs_macierz</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5673,9 +5826,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>[1]Arkusz1!$B$14:$P$14</c:f>
+              <c:f>[2]dfs2_bezgenerowania!$L$15:$Z$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5726,65 +5879,65 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>[1]Arkusz1!$B$17:$P$17</c:f>
+              <c:f>[2]dfs2_bezgenerowania!$L$19:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.0040016174316398E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.70178413391113E-2</c:v>
+                  <c:v>3.7550000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6035776138305602E-2</c:v>
+                  <c:v>6.8069999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6075086593627902E-2</c:v>
+                  <c:v>1.0123999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10311007499694801</c:v>
+                  <c:v>1.5699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15064692497253401</c:v>
+                  <c:v>2.1659999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20423769950866699</c:v>
+                  <c:v>2.92E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26679921150207497</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.342844247817993</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42040896415710399</c:v>
+                  <c:v>5.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54599928855895996</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60607123374938898</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.71078157424926702</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82995033264160101</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95245623588562001</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8712-46BA-BAB8-71E3A86F4A7F}"/>
+              <c16:uniqueId val="{00000002-ADAD-4D5C-A7C2-69A8C66D1C37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5796,27 +5949,37 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141051776"/>
-        <c:axId val="141050240"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="141051776"/>
+        <c:smooth val="0"/>
+        <c:axId val="389298080"/>
+        <c:axId val="389298736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="389298080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5828,13 +5991,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5857,13 +6015,15 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141050240"/>
+        <c:crossAx val="389298736"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="200"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="141050240"/>
+        <c:axId val="389298736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5872,13 +6032,23 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5890,13 +6060,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5919,9 +6084,9 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141051776"/>
+        <c:crossAx val="389298080"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10633,7 +10798,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10833,7 +10998,7 @@
       </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -10946,17 +11111,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -10966,17 +11141,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -11146,18 +11333,7 @@
         <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -11429,20 +11605,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>607695</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>80645</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Wykres 6"/>
+        <xdr:cNvPr id="8" name="Wykres 7"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11720,6 +11896,219 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="dfs2_bezgenerowania"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="15">
+          <cell r="L15">
+            <v>200</v>
+          </cell>
+          <cell r="M15">
+            <v>400</v>
+          </cell>
+          <cell r="N15">
+            <v>600</v>
+          </cell>
+          <cell r="O15">
+            <v>800</v>
+          </cell>
+          <cell r="P15">
+            <v>1000</v>
+          </cell>
+          <cell r="Q15">
+            <v>1200</v>
+          </cell>
+          <cell r="R15">
+            <v>1400</v>
+          </cell>
+          <cell r="S15">
+            <v>1600</v>
+          </cell>
+          <cell r="T15">
+            <v>1800</v>
+          </cell>
+          <cell r="U15">
+            <v>2000</v>
+          </cell>
+          <cell r="V15">
+            <v>2200</v>
+          </cell>
+          <cell r="W15">
+            <v>2400</v>
+          </cell>
+          <cell r="X15">
+            <v>2600</v>
+          </cell>
+          <cell r="Y15">
+            <v>2800</v>
+          </cell>
+          <cell r="Z15">
+            <v>3000</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="K17" t="str">
+            <v>dfs_nastepniki</v>
+          </cell>
+          <cell r="L17">
+            <v>1.0008811950683501E-3</v>
+          </cell>
+          <cell r="M17">
+            <v>3.9949417114257804E-3</v>
+          </cell>
+          <cell r="N17">
+            <v>7.0068836212158203E-3</v>
+          </cell>
+          <cell r="O17">
+            <v>1.05330944061279E-2</v>
+          </cell>
+          <cell r="P17">
+            <v>1.6015291213989199E-2</v>
+          </cell>
+          <cell r="Q17">
+            <v>2.2022008895873999E-2</v>
+          </cell>
+          <cell r="R17">
+            <v>2.9684543609619099E-2</v>
+          </cell>
+          <cell r="S17">
+            <v>4.0038347244262598E-2</v>
+          </cell>
+          <cell r="T17">
+            <v>4.7068119049072203E-2</v>
+          </cell>
+          <cell r="U17">
+            <v>5.8000000000000003E-2</v>
+          </cell>
+          <cell r="V17">
+            <v>6.7609548568725503E-2</v>
+          </cell>
+          <cell r="W17">
+            <v>7.9098701477050698E-2</v>
+          </cell>
+          <cell r="X17">
+            <v>9.2119932174682603E-2</v>
+          </cell>
+          <cell r="Y17">
+            <v>0.107111454010009</v>
+          </cell>
+          <cell r="Z17">
+            <v>0.17217850685119601</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="K18" t="str">
+            <v>dfs_sasiedztwa</v>
+          </cell>
+          <cell r="L18">
+            <v>4.0037631988525304E-3</v>
+          </cell>
+          <cell r="M18">
+            <v>1.7025947570800701E-2</v>
+          </cell>
+          <cell r="N18">
+            <v>3.8537263870239202E-2</v>
+          </cell>
+          <cell r="O18">
+            <v>6.8066358566284096E-2</v>
+          </cell>
+          <cell r="P18">
+            <v>0.108105659484863</v>
+          </cell>
+          <cell r="Q18">
+            <v>0.16015720367431599</v>
+          </cell>
+          <cell r="R18">
+            <v>0.21924471855163499</v>
+          </cell>
+          <cell r="S18">
+            <v>0.27442336082458402</v>
+          </cell>
+          <cell r="T18">
+            <v>0.34836006164550698</v>
+          </cell>
+          <cell r="U18">
+            <v>0.44999170303344699</v>
+          </cell>
+          <cell r="V18">
+            <v>0.52749490737914995</v>
+          </cell>
+          <cell r="W18">
+            <v>0.61712408065795898</v>
+          </cell>
+          <cell r="X18">
+            <v>0.72476983070373502</v>
+          </cell>
+          <cell r="Y18">
+            <v>0.87861919403076105</v>
+          </cell>
+          <cell r="Z18">
+            <v>0.96294760704040505</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="K19" t="str">
+            <v>dfs_macierz</v>
+          </cell>
+          <cell r="L19">
+            <v>1E-3</v>
+          </cell>
+          <cell r="M19">
+            <v>3.7550000000000001E-3</v>
+          </cell>
+          <cell r="N19">
+            <v>6.8069999999999997E-3</v>
+          </cell>
+          <cell r="O19">
+            <v>1.0123999999999999E-2</v>
+          </cell>
+          <cell r="P19">
+            <v>1.5699999999999999E-2</v>
+          </cell>
+          <cell r="Q19">
+            <v>2.1659999999999999E-2</v>
+          </cell>
+          <cell r="R19">
+            <v>2.92E-2</v>
+          </cell>
+          <cell r="S19">
+            <v>3.9E-2</v>
+          </cell>
+          <cell r="T19">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="U19">
+            <v>5.2999999999999999E-2</v>
+          </cell>
+          <cell r="V19">
+            <v>6.2E-2</v>
+          </cell>
+          <cell r="W19">
+            <v>7.0999999999999994E-2</v>
+          </cell>
+          <cell r="X19">
+            <v>8.5000000000000006E-2</v>
+          </cell>
+          <cell r="Y19">
+            <v>0.1</v>
+          </cell>
+          <cell r="Z19">
+            <v>0.13</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12076,7 +12465,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:Q9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -12498,7 +12887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
+    <sheetView topLeftCell="C19" workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
@@ -13095,8 +13484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
